--- a/Input Documents/CRS/Review/PO_PS_CRS_ES_Review.xlsx
+++ b/Input Documents/CRS/Review/PO_PS_CRS_ES_Review.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Entry Date</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>ubdate to PO_SB_CRS_ES</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -420,8 +423,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -483,7 +486,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
